--- a/데이터/중도탈락 학생 현황_학과별/의학계열/전처리 후/2022_대학_의학계열.xlsx
+++ b/데이터/중도탈락 학생 현황_학과별/의학계열/전처리 후/2022_대학_의학계열.xlsx
@@ -633,7 +633,7 @@
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0.3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -672,7 +672,7 @@
         <v>1</v>
       </c>
       <c r="I6" t="n">
-        <v>0.6</v>
+        <v>0.63</v>
       </c>
     </row>
     <row r="7">
@@ -711,7 +711,7 @@
         <v>1</v>
       </c>
       <c r="I7" t="n">
-        <v>0.6</v>
+        <v>0.5600000000000001</v>
       </c>
     </row>
     <row r="8">
@@ -828,7 +828,7 @@
         <v>2</v>
       </c>
       <c r="I10" t="n">
-        <v>0.8</v>
+        <v>0.78</v>
       </c>
     </row>
     <row r="11">
@@ -1023,7 +1023,7 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16">
@@ -1179,7 +1179,7 @@
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>0.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -1218,7 +1218,7 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>0.3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -1374,7 +1374,7 @@
         <v>1</v>
       </c>
       <c r="I24" t="n">
-        <v>0.2</v>
+        <v>0.21</v>
       </c>
     </row>
     <row r="25">
@@ -1413,7 +1413,7 @@
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>0.3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -1608,7 +1608,7 @@
         <v>1</v>
       </c>
       <c r="I30" t="n">
-        <v>0.5</v>
+        <v>0.53</v>
       </c>
     </row>
     <row r="31">
@@ -1725,7 +1725,7 @@
         <v>1</v>
       </c>
       <c r="I33" t="n">
-        <v>1.4</v>
+        <v>0.46</v>
       </c>
     </row>
     <row r="34">
@@ -1764,7 +1764,7 @@
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>0.3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -1920,7 +1920,7 @@
         <v>2</v>
       </c>
       <c r="I38" t="n">
-        <v>1.7</v>
+        <v>1.14</v>
       </c>
     </row>
     <row r="39">
@@ -1998,7 +1998,7 @@
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>0.4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -2154,7 +2154,7 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>0.6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -2232,7 +2232,7 @@
         <v>2</v>
       </c>
       <c r="I46" t="n">
-        <v>0.6</v>
+        <v>0.57</v>
       </c>
     </row>
     <row r="47">
@@ -2271,7 +2271,7 @@
         <v>1</v>
       </c>
       <c r="I47" t="n">
-        <v>0.2</v>
+        <v>0.23</v>
       </c>
     </row>
     <row r="48">
@@ -2466,7 +2466,7 @@
         <v>1</v>
       </c>
       <c r="I52" t="n">
-        <v>0.5</v>
+        <v>0.47</v>
       </c>
     </row>
     <row r="53">
@@ -2505,7 +2505,7 @@
         <v>0</v>
       </c>
       <c r="I53" t="n">
-        <v>0.4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="54">
@@ -2544,7 +2544,7 @@
         <v>1</v>
       </c>
       <c r="I54" t="n">
-        <v>0.4</v>
+        <v>0.43</v>
       </c>
     </row>
     <row r="55">
@@ -2661,7 +2661,7 @@
         <v>0</v>
       </c>
       <c r="I57" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="58">
@@ -2739,7 +2739,7 @@
         <v>0</v>
       </c>
       <c r="I59" t="n">
-        <v>0.2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="60">
@@ -2817,7 +2817,7 @@
         <v>1</v>
       </c>
       <c r="I61" t="n">
-        <v>0.3</v>
+        <v>0.27</v>
       </c>
     </row>
     <row r="62">
@@ -2856,7 +2856,7 @@
         <v>1</v>
       </c>
       <c r="I62" t="n">
-        <v>0.4</v>
+        <v>0.38</v>
       </c>
     </row>
     <row r="63">
@@ -3012,7 +3012,7 @@
         <v>0</v>
       </c>
       <c r="I66" t="n">
-        <v>0.6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="67">
@@ -3051,7 +3051,7 @@
         <v>1</v>
       </c>
       <c r="I67" t="n">
-        <v>0.7</v>
+        <v>0.22</v>
       </c>
     </row>
   </sheetData>
